--- a/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
+++ b/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D611064-36D7-4D9C-89BD-4863A38B23ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33B757-3CE6-4108-AB77-9B737497DBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>ERD, Klassendiagramm</t>
   </si>
   <si>
-    <t>Statusprotokoll</t>
-  </si>
-  <si>
     <t>User Stories, Besprechung der Datenbankstruktur</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Fehlerbehebung bei Ungleichheiten in der Datenbankstruktur und im Frontend</t>
+  </si>
+  <si>
+    <t>Tätigkeitsbericht</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CB0FE-3767-48C8-99DB-4A99BF8A238C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -637,13 +637,13 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -670,18 +670,18 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -704,18 +704,18 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -738,18 +738,18 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -772,18 +772,18 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -806,18 +806,18 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -840,18 +840,18 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
+++ b/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\GitHub\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edere\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D611064-36D7-4D9C-89BD-4863A38B23ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBCB88B-132E-47F5-A7A7-9BAC04520CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
+    <workbookView xWindow="12510" yWindow="1230" windowWidth="13815" windowHeight="14370" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>23.9.2019-27.09.2019</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Fehlerbehebung bei Ungleichheiten in der Datenbankstruktur und im Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umschreiben auf SinglePage Architektur </t>
+  </si>
+  <si>
+    <t>Testung der SinglePageArchitecture</t>
+  </si>
+  <si>
+    <t>Änderungen bei der Mitarbeiterverwaltung, Verwaltung Backlock</t>
+  </si>
+  <si>
+    <t>Zusätzliche Routen implementieren</t>
   </si>
 </sst>
 </file>
@@ -579,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CB0FE-3767-48C8-99DB-4A99BF8A238C}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +701,9 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -723,7 +737,9 @@
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -757,7 +773,9 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -791,7 +809,9 @@
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>

--- a/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
+++ b/Protokolle/Statusprotokoll_Arbeitszeitverwaltung_Sprint_1+2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Arbeitszeitverwaltung_Sport_Camp_Salcher\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33B757-3CE6-4108-AB77-9B737497DBFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39BF03-8D76-429C-8FEE-FF17F4EA1C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D76CD718-F911-4B74-8B36-452779118D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>23.9.2019-27.09.2019</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>Tätigkeitsbericht</t>
+  </si>
+  <si>
+    <t>ERD, Produkkt Backlog, Besprechung der Datenbankstruktur</t>
+  </si>
+  <si>
+    <t>Testung der SinglePageArchitecture</t>
+  </si>
+  <si>
+    <t>Aänderungen bei der Mitarbeiterverwaltung, Verwaltung Backlock</t>
+  </si>
+  <si>
+    <t>Zusätzliche Routen implementieren</t>
+  </si>
+  <si>
+    <t>Recherche Xamarin</t>
+  </si>
+  <si>
+    <t>Umstieg zu Androidentwicklung mit Android Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitszeien anzeigen und grober Aufbau </t>
+  </si>
+  <si>
+    <t>Arbeitszeitverwaltung --&gt; Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementation Profile Layout </t>
+  </si>
+  <si>
+    <t>implementation File Layout</t>
   </si>
 </sst>
 </file>
@@ -689,14 +719,18 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -723,14 +757,18 @@
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -757,14 +795,18 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -791,14 +833,18 @@
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -825,14 +871,18 @@
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -859,14 +909,18 @@
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
